--- a/Approximationen/Rohrkosten.xlsx
+++ b/Approximationen/Rohrkosten.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_FCE6DD17479064708FFFA810090AFDE853E8FC46" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="4" r:id="rId1"/>
@@ -48,7 +49,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -114,11 +115,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,9 +179,20 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -195,6 +207,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -356,7 +369,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A6C-4848-9AE9-20B7F2A17502}"/>
             </c:ext>
@@ -534,7 +548,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A6C-4848-9AE9-20B7F2A17502}"/>
             </c:ext>
@@ -677,7 +692,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5A6C-4848-9AE9-20B7F2A17502}"/>
             </c:ext>
@@ -716,7 +732,8 @@
                 </a:ln>
               </c:spPr>
             </c:marker>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:bubble3D val="0"/>
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5456-4ABA-963C-E7EB20CBE707}"/>
               </c:ext>
@@ -872,7 +889,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5A6C-4848-9AE9-20B7F2A17502}"/>
             </c:ext>
@@ -1021,7 +1039,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5456-4ABA-963C-E7EB20CBE707}"/>
             </c:ext>
@@ -1053,6 +1072,8 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:backward val="21.7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1174,12 +1195,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5456-4ABA-963C-E7EB20CBE707}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="62114048"/>
         <c:axId val="62161280"/>
       </c:scatterChart>
@@ -1189,6 +1219,7 @@
           <c:orientation val="minMax"/>
           <c:max val="300"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines>
@@ -1218,8 +1249,10 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1236,7 +1269,7 @@
             <a:pPr>
               <a:defRPr sz="1500"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62161280"/>
@@ -1250,6 +1283,7 @@
           <c:max val="150"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines>
@@ -1279,8 +1313,10 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1301,7 +1337,7 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62114048"/>
@@ -1355,12 +1391,13 @@
           <a:pPr>
             <a:defRPr sz="1500"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1372,10 +1409,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1387,13 +1424,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303297" cy="6010603"/>
+    <xdr:ext cx="9305925" cy="6010275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1469,7 @@
         <cdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4D9FBD-414B-488C-B5CD-9CB4B3DAFCD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4D9FBD-414B-488C-B5CD-9CB4B3DAFCD2}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1473,7 +1510,7 @@
         <cdr:cNvPr id="3" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82E6881-054D-4657-8155-CBF5E83688C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82E6881-054D-4657-8155-CBF5E83688C7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1568,9 +1605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1608,9 +1645,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1642,9 +1679,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1676,9 +1731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1851,14 +1924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -1866,7 +1939,7 @@
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1881,13 +1954,13 @@
         <v>0.11467062011680759</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" s="1">
         <f>SUM(D5:D18,D34:D42,I34:I46)</f>
         <v>98.834304231840264</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>32-2*2</f>
         <v>28</v>
@@ -1930,7 +2003,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>40-2*2.4</f>
         <v>35.200000000000003</v>
@@ -1962,7 +2035,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>50-2*3</f>
         <v>44</v>
@@ -1991,7 +2064,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>63-2*3.8</f>
         <v>55.4</v>
@@ -2020,7 +2093,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>75-2*4.5</f>
         <v>66</v>
@@ -2049,7 +2122,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>90-2*5.4</f>
         <v>79.2</v>
@@ -2078,7 +2151,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>110-2*6.6</f>
         <v>96.8</v>
@@ -2107,7 +2180,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>125-2*7.4</f>
         <v>110.2</v>
@@ -2136,7 +2209,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>140-2*8.3</f>
         <v>123.4</v>
@@ -2165,7 +2238,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>160-2*9.5</f>
         <v>141</v>
@@ -2194,7 +2267,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>180-2*10.7</f>
         <v>158.6</v>
@@ -2223,7 +2296,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>200-2*11.9</f>
         <v>176.2</v>
@@ -2252,7 +2325,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>225-2*13.4</f>
         <v>198.2</v>
@@ -2281,7 +2354,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>250-2*14.8</f>
         <v>220.4</v>
@@ -2310,7 +2383,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>280-2*16.6</f>
         <v>246.8</v>
@@ -2339,7 +2412,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>315-2*18.7</f>
         <v>277.60000000000002</v>
@@ -2368,7 +2441,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>355-2*21.1</f>
         <v>312.8</v>
@@ -2397,7 +2470,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>400-2*23.7</f>
         <v>352.6</v>
@@ -2426,7 +2499,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>450-2*26.7</f>
         <v>396.6</v>
@@ -2455,7 +2528,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>500-2*29.7</f>
         <v>440.6</v>
@@ -2484,7 +2557,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>560-2*33.2</f>
         <v>493.6</v>
@@ -2513,7 +2586,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>630-2*37.4</f>
         <v>555.20000000000005</v>
@@ -2542,7 +2615,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2552,7 +2625,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2562,7 +2635,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2572,7 +2645,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2586,7 +2659,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2600,7 +2673,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2620,7 +2693,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2712,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>75-2*4.5</f>
         <v>66</v>
@@ -2682,7 +2755,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>90-2*5.4</f>
         <v>79.2</v>
@@ -2728,7 +2801,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>110-2*6.6</f>
         <v>96.8</v>
@@ -2774,7 +2847,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>125-2*7.4</f>
         <v>110.2</v>
@@ -2820,7 +2893,7 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>140-2*8.3</f>
         <v>123.4</v>
@@ -2863,7 +2936,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>160-2*9.5</f>
         <v>141</v>
@@ -2906,7 +2979,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>180-2*10.7</f>
         <v>158.6</v>
@@ -2949,7 +3022,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>200-2*11.9</f>
         <v>176.2</v>
@@ -2992,7 +3065,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>225-2*13.4</f>
         <v>198.2</v>
@@ -3038,7 +3111,7 @@
       </c>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>250-2*14.8</f>
         <v>220.4</v>
@@ -3081,7 +3154,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>280-2*16.6</f>
         <v>246.8</v>
@@ -3124,7 +3197,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>315-2*18.7</f>
         <v>277.60000000000002</v>
@@ -3167,7 +3240,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>355-2*21.1</f>
         <v>312.8</v>
@@ -3210,7 +3283,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>400-2*23.7</f>
         <v>352.6</v>
@@ -3253,7 +3326,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>450-2*26.7</f>
         <v>396.6</v>
@@ -3296,7 +3369,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>500-2*29.7</f>
         <v>440.6</v>
@@ -3342,7 +3415,7 @@
       </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>560-2*33.2</f>
         <v>493.6</v>
@@ -3385,7 +3458,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>630-2*37.4</f>
         <v>555.20000000000005</v>
@@ -3428,7 +3501,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F52">
         <f>450-2*26.7</f>
         <v>396.6</v>
@@ -3452,7 +3525,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F53">
         <f>500-2*29.7</f>
         <v>440.6</v>
@@ -3476,7 +3549,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3504,7 +3577,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3532,7 +3605,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3546,7 +3619,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3560,7 +3633,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3574,7 +3647,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3583,7 +3656,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3592,7 +3665,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3601,7 +3674,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3610,7 +3683,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3619,7 +3692,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3628,7 +3701,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3649,16 +3722,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>1</v>
       </c>
@@ -3666,7 +3739,7 @@
         <v>2553.4399601566397</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3677,7 +3750,7 @@
         <v>18.27077488323204</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3771,7 @@
         <v>82.950647755478911</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1700000000000001E-2</v>
       </c>
@@ -3718,7 +3791,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.8500000000000001E-2</v>
       </c>
@@ -3738,7 +3811,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -3758,7 +3831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.19E-2</v>
       </c>
@@ -3778,7 +3851,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.3900000000000003E-2</v>
       </c>
@@ -3798,7 +3871,7 @@
         <v>53.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6.9699999999999998E-2</v>
       </c>
@@ -3818,7 +3891,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.2500000000000004E-2</v>
       </c>
@@ -3838,7 +3911,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.1071</v>
       </c>
@@ -3858,7 +3931,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.13250000000000001</v>
       </c>
@@ -3878,7 +3951,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.1603</v>
       </c>
@@ -3901,7 +3974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.21010000000000001</v>
       </c>
@@ -3921,7 +3994,7 @@
         <v>210.10000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.26300000000000001</v>
       </c>
@@ -3941,7 +4014,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.31269999999999998</v>
       </c>
@@ -3961,7 +4034,7 @@
         <v>312.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.34439999999999998</v>
       </c>
@@ -3981,7 +4054,7 @@
         <v>344.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.39379999999999998</v>
       </c>
@@ -4001,7 +4074,7 @@
         <v>393.8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.44440000000000002</v>
       </c>
@@ -4021,7 +4094,7 @@
         <v>444.40000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.49540000000000001</v>
       </c>
@@ -4048,12 +4121,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
